--- a/functionality.xlsx
+++ b/functionality.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="22">
   <si>
     <t>Rotation support (haste)</t>
   </si>
@@ -67,6 +67,24 @@
   </si>
   <si>
     <t>Filter out nonusable items</t>
+  </si>
+  <si>
+    <t>Grab itemID/link from mouseover</t>
+  </si>
+  <si>
+    <t>Grab IitemID/link from mouseover comparison(shift)</t>
+  </si>
+  <si>
+    <t>done</t>
+  </si>
+  <si>
+    <t>todo</t>
+  </si>
+  <si>
+    <t>OsF 3tp support</t>
+  </si>
+  <si>
+    <t>proper rotation support</t>
   </si>
 </sst>
 </file>
@@ -123,9 +141,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -428,10 +449,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G21"/>
+  <dimension ref="B2:G48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -460,6 +481,9 @@
       <c r="B3" t="s">
         <v>8</v>
       </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
       <c r="F3" t="s">
         <v>0</v>
       </c>
@@ -468,6 +492,9 @@
       <c r="B4" t="s">
         <v>9</v>
       </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
       <c r="F4" t="s">
         <v>1</v>
       </c>
@@ -476,6 +503,9 @@
       <c r="B5" t="s">
         <v>10</v>
       </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
       <c r="F5" t="s">
         <v>2</v>
       </c>
@@ -484,6 +514,9 @@
       <c r="B6" t="s">
         <v>11</v>
       </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
       <c r="F6" t="s">
         <v>3</v>
       </c>
@@ -492,35 +525,71 @@
       <c r="B7" t="s">
         <v>15</v>
       </c>
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
       <c r="F7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B18" s="1" t="s">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B45" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
         <v>14</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="2">
-    <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
--- a/functionality.xlsx
+++ b/functionality.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="27">
   <si>
     <t>Rotation support (haste)</t>
   </si>
@@ -85,6 +85,21 @@
   </si>
   <si>
     <t>proper rotation support</t>
+  </si>
+  <si>
+    <t>Cache base stats on load</t>
+  </si>
+  <si>
+    <t>cache equipped stats on load</t>
+  </si>
+  <si>
+    <t>cache traits on load</t>
+  </si>
+  <si>
+    <t>update equipped stats on gear change</t>
+  </si>
+  <si>
+    <t>update cached traits on trait update</t>
   </si>
 </sst>
 </file>
@@ -176,8 +191,14 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="B2:C15" totalsRowShown="0">
-  <autoFilter ref="B2:C15"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="B2:C20" totalsRowShown="0">
+  <autoFilter ref="B2:C20">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="todo"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="2">
     <tableColumn id="1" name="Functionality"/>
     <tableColumn id="2" name="Column1"/>
@@ -452,7 +473,7 @@
   <dimension ref="B2:G48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -477,7 +498,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>8</v>
       </c>
@@ -488,7 +509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>9</v>
       </c>
@@ -499,7 +520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>10</v>
       </c>
@@ -510,7 +531,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>11</v>
       </c>
@@ -561,6 +582,50 @@
         <v>21</v>
       </c>
       <c r="C11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="2:7" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="2:7" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="2:7" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
         <v>19</v>
       </c>
     </row>
